--- a/data/trans_orig/P14B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6E44E3A-318D-43C9-8CA9-BD3DFD67AB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8D1A61-7CC9-4F96-958D-CB2D071224F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8718E14B-4A8E-45B7-99AB-FA330E21735C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B4765C-7FA7-4B3B-A8BC-BB9BE3DB941D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="181">
   <si>
     <t>Población cuya colitis le limita en 2012 (Tasa respuesta: 1,23%)</t>
   </si>
@@ -102,10 +102,7 @@
     <t>37,56%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>71,25%</t>
   </si>
   <si>
     <t>66,44%</t>
@@ -114,19 +111,16 @@
     <t>45,12%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>28,75%</t>
   </si>
   <si>
     <t>33,56%</t>
@@ -135,10 +129,10 @@
     <t>54,88%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -156,19 +150,19 @@
     <t>44,98%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>57,07%</t>
@@ -183,19 +177,19 @@
     <t>55,02%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -204,49 +198,49 @@
     <t>84,88%</t>
   </si>
   <si>
-    <t>32,36%</t>
+    <t>32,64%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>67,64%</t>
+    <t>67,36%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -261,19 +255,19 @@
     <t>61,24%</t>
   </si>
   <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>56,21%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>66,18%</t>
@@ -285,193 +279,205 @@
     <t>38,76%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>43,79%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>55,38%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>70,68%</t>
   </si>
   <si>
-    <t>28,07%</t>
+    <t>27,64%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>47,84%</t>
+    <t>45,69%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>71,93%</t>
+    <t>72,36%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>52,16%</t>
+    <t>54,31%</t>
   </si>
   <si>
     <t>65,7%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>43,46%</t>
   </si>
   <si>
+    <t>84,32%</t>
+  </si>
+  <si>
     <t>72,71%</t>
   </si>
   <si>
-    <t>28,92%</t>
+    <t>30,52%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>56,54%</t>
   </si>
   <si>
+    <t>15,68%</t>
+  </si>
+  <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>71,08%</t>
+    <t>69,48%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>17,36%</t>
@@ -483,19 +489,19 @@
     <t>42,87%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>82,64%</t>
@@ -507,73 +513,73 @@
     <t>57,13%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
   <si>
     <t>62,04%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
 </sst>
 </file>
@@ -985,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B07AD86-543D-4E8C-B0E8-20E990BD93BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5105E49B-7106-4C85-AE18-36F6AF2447D5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1261,10 +1267,10 @@
         <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -1273,7 +1279,7 @@
         <v>1990</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>16</v>
@@ -1288,13 +1294,13 @@
         <v>5162</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1309,13 +1315,13 @@
         <v>5275</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1324,7 +1330,7 @@
         <v>1005</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
@@ -1339,13 +1345,13 @@
         <v>6279</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,7 +1407,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1413,13 +1419,13 @@
         <v>3148</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1428,13 +1434,13 @@
         <v>8533</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -1443,13 +1449,13 @@
         <v>11681</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,13 +1470,13 @@
         <v>4186</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -1479,13 +1485,13 @@
         <v>10436</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -1494,13 +1500,13 @@
         <v>14622</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,7 +1562,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1568,10 +1574,10 @@
         <v>5959</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -1583,13 +1589,13 @@
         <v>8816</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1598,13 +1604,13 @@
         <v>14775</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1625,13 @@
         <v>1062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1634,13 +1640,13 @@
         <v>3097</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1649,13 +1655,13 @@
         <v>4159</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1711,7 +1717,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1723,13 +1729,13 @@
         <v>2017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -1738,13 +1744,13 @@
         <v>16242</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1753,13 +1759,13 @@
         <v>18259</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,10 +1780,10 @@
         <v>3946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
@@ -1789,13 +1795,13 @@
         <v>10279</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -1804,13 +1810,13 @@
         <v>14225</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1884,13 @@
         <v>14297</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -1893,13 +1899,13 @@
         <v>36753</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -1908,13 +1914,13 @@
         <v>51049</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1935,13 @@
         <v>14468</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -1944,13 +1950,13 @@
         <v>24816</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -1959,13 +1965,13 @@
         <v>39285</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,7 +2027,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BE5491-7687-476D-BCDF-E7303E676DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1905246F-1F18-428A-9E43-8B3C4CE859CC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2059,7 +2065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2179,7 +2185,7 @@
         <v>1906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>16</v>
@@ -2194,7 +2200,7 @@
         <v>1906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>16</v>
@@ -2228,7 +2234,7 @@
         <v>2084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -2243,7 +2249,7 @@
         <v>2084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
@@ -2318,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2330,13 +2336,13 @@
         <v>2065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2345,13 +2351,13 @@
         <v>4815</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,7 +2378,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2381,10 +2387,10 @@
         <v>5977</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>12</v>
@@ -2396,7 +2402,7 @@
         <v>5976</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>117</v>
@@ -2458,7 +2464,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2613,7 +2619,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2631,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2640,10 +2646,10 @@
         <v>5258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>12</v>
@@ -2655,13 +2661,13 @@
         <v>7716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,10 +2682,10 @@
         <v>3198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>12</v>
@@ -2691,13 +2697,13 @@
         <v>1973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2706,13 +2712,13 @@
         <v>5171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,7 +2774,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2780,13 +2786,13 @@
         <v>1745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2795,13 +2801,13 @@
         <v>9745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2810,13 +2816,13 @@
         <v>11489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,10 +2837,10 @@
         <v>8305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
@@ -2846,13 +2852,13 @@
         <v>12987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2861,13 +2867,13 @@
         <v>21292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2941,13 @@
         <v>11863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2950,13 +2956,13 @@
         <v>21158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2965,13 +2971,13 @@
         <v>33021</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2992,13 @@
         <v>13541</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -3001,13 +3007,13 @@
         <v>34574</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3016,13 +3022,13 @@
         <v>48115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,7 +3084,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B05-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF8D1A61-7CC9-4F96-958D-CB2D071224F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F45C1E5-6220-4836-B272-DDC27A596F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8B4765C-7FA7-4B3B-A8BC-BB9BE3DB941D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{84A2A162-30A0-403F-9C5F-D90FCBBEE370}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="177">
   <si>
     <t>Población cuya colitis le limita en 2012 (Tasa respuesta: 1,23%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,13 +96,13 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>75,08%</t>
   </si>
   <si>
     <t>66,44%</t>
@@ -111,16 +111,16 @@
     <t>45,12%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>24,92%</t>
   </si>
   <si>
     <t>33,56%</t>
@@ -129,457 +129,445 @@
     <t>54,88%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>42,93%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya colitis le limita en 2016 (Tasa respuesta: 1,11%)</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya colitis le limita en 2015 (Tasa respuesta: 1,11%)</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
     <t>17,36%</t>
   </si>
   <si>
-    <t>72,8%</t>
+    <t>59,95%</t>
   </si>
   <si>
     <t>42,87%</t>
   </si>
   <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
   </si>
   <si>
     <t>35,05%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>82,64%</t>
   </si>
   <si>
-    <t>27,2%</t>
+    <t>40,05%</t>
   </si>
   <si>
     <t>57,13%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>46,7%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>37,96%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>40,7%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
   </si>
   <si>
     <t>62,04%</t>
   </si>
   <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
 </sst>
 </file>
@@ -991,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5105E49B-7106-4C85-AE18-36F6AF2447D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6943F178-5275-4C3A-B5B4-742235163228}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1574,10 +1562,10 @@
         <v>5959</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
@@ -1589,13 +1577,13 @@
         <v>8816</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1604,13 +1592,13 @@
         <v>14775</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,13 +1613,13 @@
         <v>1062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1640,13 +1628,13 @@
         <v>3097</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1655,13 +1643,13 @@
         <v>4159</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,7 +1705,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1729,13 +1717,13 @@
         <v>2017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -1744,13 +1732,13 @@
         <v>16242</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -1759,13 +1747,13 @@
         <v>18259</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,10 +1768,10 @@
         <v>3946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
@@ -1795,13 +1783,13 @@
         <v>10279</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -1810,13 +1798,13 @@
         <v>14225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,13 +1872,13 @@
         <v>14297</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -1899,13 +1887,13 @@
         <v>36753</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -1914,13 +1902,13 @@
         <v>51049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1923,13 @@
         <v>14468</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -1950,13 +1938,13 @@
         <v>24816</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -1965,13 +1953,13 @@
         <v>39285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,7 +2015,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1905246F-1F18-428A-9E43-8B3C4CE859CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DB5A94-7080-4356-827C-F011059245CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2065,7 +2053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2185,7 +2173,7 @@
         <v>1906</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>16</v>
@@ -2200,7 +2188,7 @@
         <v>1906</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>16</v>
@@ -2234,7 +2222,7 @@
         <v>2084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>16</v>
@@ -2249,7 +2237,7 @@
         <v>2084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>16</v>
@@ -2324,7 +2312,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2336,13 +2324,13 @@
         <v>2065</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2351,13 +2339,13 @@
         <v>4815</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2366,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2387,10 +2375,10 @@
         <v>5977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>12</v>
@@ -2402,13 +2390,13 @@
         <v>5976</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,10 +2464,10 @@
         <v>4911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -2491,13 +2479,13 @@
         <v>2184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2506,13 +2494,13 @@
         <v>7095</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2515,13 @@
         <v>2038</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2542,10 +2530,10 @@
         <v>11554</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>12</v>
@@ -2557,13 +2545,13 @@
         <v>13592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2619,13 @@
         <v>2458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2646,10 +2634,10 @@
         <v>5258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>12</v>
@@ -2661,13 +2649,13 @@
         <v>7716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2670,10 @@
         <v>3198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>12</v>
@@ -2697,13 +2685,13 @@
         <v>1973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2712,13 +2700,13 @@
         <v>5171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,7 +2762,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2786,13 +2774,13 @@
         <v>1745</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2801,13 +2789,13 @@
         <v>9745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2816,13 +2804,13 @@
         <v>11489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,10 +2825,10 @@
         <v>8305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
@@ -2852,13 +2840,13 @@
         <v>12987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2867,13 +2855,13 @@
         <v>21292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2929,13 @@
         <v>11863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2956,13 +2944,13 @@
         <v>21158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2971,13 +2959,13 @@
         <v>33021</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2980,13 @@
         <v>13541</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -3007,13 +2995,13 @@
         <v>34574</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3022,13 +3010,13 @@
         <v>48115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3072,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
